--- a/biology/Botanique/Comtesse_de_Chambord/Comtesse_de_Chambord.xlsx
+++ b/biology/Botanique/Comtesse_de_Chambord/Comtesse_de_Chambord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Comtesse de Chambord est le nom d'une variété de poire.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après M. de Liron d'Airoles,  ce poirier « Comtesse de Chambord » est attribué au président Parigot, de Poitiers, Vienne. C'est une variété ancienne dont la première production a été obtenue en 1855[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après M. de Liron d'Airoles,  ce poirier « Comtesse de Chambord » est attribué au président Parigot, de Poitiers, Vienne. C'est une variété ancienne dont la première production a été obtenue en 1855.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-Les rameaux sont de moyenne force, anguleux dans leur contours, légèrement flexueux, d'un vert jaunâtre, lenticelles blanchâtres, petites, peu nombreuses et peu apparentes.
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rameaux sont de moyenne force, anguleux dans leur contours, légèrement flexueux, d'un vert jaunâtre, lenticelles blanchâtres, petites, peu nombreuses et peu apparentes.
 Boutons à bois petits, courts, épatés, appliqués aux rameaux, soutenus sur des supports saillants dont les côtés se prolongent sensiblement ; écailles entr'ouvertes d'un marron noirâtre.
 Pousses d'été jaunâtres à leur base, jaunâtres à leur sommet bien recouvert d'un duvet blanchâtre et cotonneux.
 Feuilles des pousses d'été petites ou presque moyennes, ovales à presque allongées, s'atténuant lentement pour se terminer régulièrement par une pointe longue et aiguë, bien repliées sur leur nervure médiane et bien arquées, bardées de dents très peu profondes, émoussées et souvent inappréciables, soutenues horizontalement par des pétioles de longueur moyenne et bien redressés.
@@ -553,12 +572,7 @@
 Feuilles stipulaires toujours manquantes.
 Boutons à fruits, petits, courts, un peu anguleux et un peu obtus, écailles marron foncé, largement bordées d'un gris blanchâtre.
 Fleurs moyennes, quelquefois semi-doubles, pétales ovales tronqués à leur sommet.
-L'arbre produit une excellente poire de table[1].
-Description du fruit
-Le fruit est moyen, piriforme-ventru ou turbiné-piriforme.
-La chair est blanche, fine sucrée, juteuse et très bonne[1].
-Maturité
-De mi-septembre à mi-octobre[1].
+L'arbre produit une excellente poire de table.
 </t>
         </is>
       </c>
@@ -584,13 +598,90 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Description du fruit</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est moyen, piriforme-ventru ou turbiné-piriforme.
+La chair est blanche, fine sucrée, juteuse et très bonne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Comtesse_de_Chambord</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comtesse_de_Chambord</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Maturité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De mi-septembre à mi-octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Comtesse_de_Chambord</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comtesse_de_Chambord</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété ne se développe bien qu'en forme de plein vent, greffée sur tige.
-Ce poirier est assez vigoureux et fertile[1].
+Ce poirier est assez vigoureux et fertile.
 </t>
         </is>
       </c>
